--- a/data/trans_orig/P15B_3_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P15B_3_R-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>7039</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2933</v>
+        <v>3038</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11197</v>
+        <v>11551</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3724331449996247</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1551839646581584</v>
+        <v>0.1607481065286762</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5924406465692922</v>
+        <v>0.6111421923617</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5204</v>
+        <v>5251</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04139113310664678</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.209056371820151</v>
+        <v>0.210937300081756</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -786,19 +786,19 @@
         <v>8069</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4112</v>
+        <v>3965</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>14474</v>
+        <v>14104</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1842544249489386</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09389315871417914</v>
+        <v>0.09053320078801431</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3304864264525876</v>
+        <v>0.3220422609674218</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>11861</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7703</v>
+        <v>7349</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15967</v>
+        <v>15862</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6275668550003753</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4075593534307078</v>
+        <v>0.3888578076382999</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8448160353418416</v>
+        <v>0.8392518934713238</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>23</v>
@@ -836,7 +836,7 @@
         <v>23865</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>19691</v>
+        <v>19644</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>24895</v>
@@ -845,7 +845,7 @@
         <v>0.9586088668933532</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7909436281798494</v>
+        <v>0.789062699918244</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -857,19 +857,19 @@
         <v>35726</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>29321</v>
+        <v>29691</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>39683</v>
+        <v>39830</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8157455750510614</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6695135735474123</v>
+        <v>0.6779577390325776</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9061068412858209</v>
+        <v>0.9094667992119857</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>10426</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5956</v>
+        <v>5290</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17058</v>
+        <v>15936</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3029720226565188</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1730550251380032</v>
+        <v>0.1537035427357628</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4956682840168385</v>
+        <v>0.4630547305738265</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -982,19 +982,19 @@
         <v>4420</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>976</v>
+        <v>1009</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9709</v>
+        <v>9903</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.145203637745173</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0320639572431967</v>
+        <v>0.0331464354718972</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.318988312699424</v>
+        <v>0.3253690901479483</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>15</v>
@@ -1003,19 +1003,19 @@
         <v>14846</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>8831</v>
+        <v>9004</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>22853</v>
+        <v>23535</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2289260291994644</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1361678653137268</v>
+        <v>0.1388474475675017</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3523903771324856</v>
+        <v>0.3629130848118619</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>23988</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>17356</v>
+        <v>18478</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>28458</v>
+        <v>29124</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6970279773434812</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5043317159831612</v>
+        <v>0.5369452694261735</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8269449748619967</v>
+        <v>0.8462964572642369</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>24</v>
@@ -1053,19 +1053,19 @@
         <v>26017</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>20728</v>
+        <v>20534</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>29461</v>
+        <v>29428</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.854796362254827</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6810116873005762</v>
+        <v>0.6746309098520518</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9679360427568033</v>
+        <v>0.9668535645281028</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>48</v>
@@ -1074,19 +1074,19 @@
         <v>50005</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>41998</v>
+        <v>41316</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>56020</v>
+        <v>55847</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7710739708005355</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6476096228675144</v>
+        <v>0.6370869151881388</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8638321346862732</v>
+        <v>0.8611525524324986</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>20093</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13638</v>
+        <v>13288</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27105</v>
+        <v>27521</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4551134444050902</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3089072677881588</v>
+        <v>0.3009770377113594</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6139445694870459</v>
+        <v>0.6233735119145709</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5921</v>
+        <v>5849</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0767715883090133</v>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.232404913765011</v>
+        <v>0.2295738313474381</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>20</v>
@@ -1220,19 +1220,19 @@
         <v>22048</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>14963</v>
+        <v>14674</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>30490</v>
+        <v>30382</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3166773524440737</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2149161010288603</v>
+        <v>0.210754624681093</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4379172161142658</v>
+        <v>0.4363653871914774</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>24056</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>17044</v>
+        <v>16628</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>30511</v>
+        <v>30861</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5448865555949098</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3860554305129544</v>
+        <v>0.3766264880854293</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6910927322118412</v>
+        <v>0.6990229622886406</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>23</v>
@@ -1270,7 +1270,7 @@
         <v>23520</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>19555</v>
+        <v>19627</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>25476</v>
@@ -1279,7 +1279,7 @@
         <v>0.9232284116909867</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7675950862349892</v>
+        <v>0.7704261686525619</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1291,19 +1291,19 @@
         <v>47576</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>39134</v>
+        <v>39242</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>54661</v>
+        <v>54950</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6833226475559263</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5620827838857341</v>
+        <v>0.5636346128085225</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7850838989711397</v>
+        <v>0.7892453753189065</v>
       </c>
     </row>
     <row r="12">
@@ -1398,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6062</v>
+        <v>6085</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07842014990143029</v>
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2457033372770443</v>
+        <v>0.246672655429046</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -1419,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>3975</v>
+        <v>4663</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08592358007595617</v>
@@ -1428,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3648158915536817</v>
+        <v>0.4280350468500844</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3</v>
@@ -1437,19 +1437,19 @@
         <v>2871</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>906</v>
+        <v>884</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>7867</v>
+        <v>6910</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08071867098480466</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02548278861523494</v>
+        <v>0.02486856232454215</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2212050120875151</v>
+        <v>0.194304164509742</v>
       </c>
     </row>
     <row r="14">
@@ -1466,7 +1466,7 @@
         <v>22735</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>18608</v>
+        <v>18585</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>24670</v>
@@ -1475,7 +1475,7 @@
         <v>0.9215798500985697</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7542966627229559</v>
+        <v>0.7533273445709533</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1487,7 +1487,7 @@
         <v>9959</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6920</v>
+        <v>6232</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>10895</v>
@@ -1496,7 +1496,7 @@
         <v>0.9140764199240439</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6351841084463183</v>
+        <v>0.5719649531499166</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -1508,19 +1508,19 @@
         <v>32694</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>27698</v>
+        <v>28655</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>34659</v>
+        <v>34681</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9192813290151953</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7787949879124848</v>
+        <v>0.805695835490258</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9745172113847651</v>
+        <v>0.9751314376754578</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>39493</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>29862</v>
+        <v>30491</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>50557</v>
+        <v>49357</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3233588065683896</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2445069035187553</v>
+        <v>0.2496526344040373</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4139469480897556</v>
+        <v>0.4041279787840794</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -1633,19 +1633,19 @@
         <v>8342</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3983</v>
+        <v>3881</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16417</v>
+        <v>15102</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0909671679132229</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04343446734531847</v>
+        <v>0.04232564011512252</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.179029131112644</v>
+        <v>0.1646804761330485</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>46</v>
@@ -1654,19 +1654,19 @@
         <v>47835</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>35404</v>
+        <v>36145</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>61793</v>
+        <v>61117</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2236989881078402</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.165564912561272</v>
+        <v>0.1690335263542286</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2889751719115751</v>
+        <v>0.2858136910338081</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>82640</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>71576</v>
+        <v>72776</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>92271</v>
+        <v>91642</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6766411934316104</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5860530519102447</v>
+        <v>0.5958720212159203</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.755493096481245</v>
+        <v>0.7503473655959627</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>80</v>
@@ -1704,19 +1704,19 @@
         <v>83360</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>75285</v>
+        <v>76600</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>87719</v>
+        <v>87821</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9090328320867771</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8209708688873559</v>
+        <v>0.8353195238669514</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9565655326546815</v>
+        <v>0.9576743598848775</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>160</v>
@@ -1725,19 +1725,19 @@
         <v>166000</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>152042</v>
+        <v>152718</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>178431</v>
+        <v>177690</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7763010118921598</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7110248280884246</v>
+        <v>0.7141863089661917</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8344350874387279</v>
+        <v>0.8309664736457713</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>13541</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8194</v>
+        <v>7511</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21296</v>
+        <v>20784</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1753769858904004</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1061169855744614</v>
+        <v>0.09727335589092526</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2758140064415978</v>
+        <v>0.2691739629467211</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -2093,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5618</v>
+        <v>6771</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01410390018381451</v>
@@ -2102,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06980947706222608</v>
+        <v>0.08413312200233997</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>15</v>
@@ -2111,19 +2111,19 @@
         <v>14677</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9380</v>
+        <v>8441</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>23281</v>
+        <v>23081</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09306985784828642</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05948529345016371</v>
+        <v>0.05352610758956518</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1476336583432747</v>
+        <v>0.1463660246740589</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>63672</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>55917</v>
+        <v>56429</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>69019</v>
+        <v>69702</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8246230141095996</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7241859935584016</v>
+        <v>0.7308260370532785</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8938830144255385</v>
+        <v>0.9027266441090743</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>75</v>
@@ -2161,7 +2161,7 @@
         <v>79345</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>74862</v>
+        <v>73709</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>80480</v>
@@ -2170,7 +2170,7 @@
         <v>0.9858960998161855</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.930190522937774</v>
+        <v>0.91586687799766</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -2182,19 +2182,19 @@
         <v>143017</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>134413</v>
+        <v>134613</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>148314</v>
+        <v>149253</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9069301421517135</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8523663416567248</v>
+        <v>0.8536339753259418</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9405147065498362</v>
+        <v>0.946473892410435</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>30260</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>21450</v>
+        <v>21950</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>40497</v>
+        <v>39616</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3125045948375488</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2215172645270503</v>
+        <v>0.2266827463017372</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4182172470920325</v>
+        <v>0.4091192924529804</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -2307,19 +2307,19 @@
         <v>6339</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2123</v>
+        <v>2195</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14028</v>
+        <v>14398</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07621618191739772</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02552982809485887</v>
+        <v>0.02639226731312837</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.168662209045496</v>
+        <v>0.1731093357563036</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>35</v>
@@ -2328,19 +2328,19 @@
         <v>36599</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>27233</v>
+        <v>27292</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>49513</v>
+        <v>49617</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2033256822115044</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1512931148507776</v>
+        <v>0.1516167796953535</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2750675459277466</v>
+        <v>0.2756460981985563</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>66572</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>56335</v>
+        <v>57216</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>75382</v>
+        <v>74882</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6874954051624512</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5817827529079679</v>
+        <v>0.5908807075470196</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7784827354729497</v>
+        <v>0.773317253698263</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>73</v>
@@ -2378,19 +2378,19 @@
         <v>76833</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>69144</v>
+        <v>68774</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>81049</v>
+        <v>80977</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9237838180826022</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8313377909545042</v>
+        <v>0.8268906642436964</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9744701719051412</v>
+        <v>0.9736077326868716</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>137</v>
@@ -2399,19 +2399,19 @@
         <v>143405</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>130491</v>
+        <v>130387</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>152771</v>
+        <v>152712</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7966743177884956</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.724932454072254</v>
+        <v>0.7243539018014438</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8487068851492228</v>
+        <v>0.8483832203046466</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>13612</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8241</v>
+        <v>7676</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20598</v>
+        <v>20710</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2013706144020985</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1219158543793269</v>
+        <v>0.1135515320341022</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3047163213204087</v>
+        <v>0.3063742637541175</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -2524,19 +2524,19 @@
         <v>3250</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9486</v>
+        <v>8903</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05115172606458099</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01521557941610451</v>
+        <v>0.01524119093047724</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1493040030363407</v>
+        <v>0.1401289421057414</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>17</v>
@@ -2545,19 +2545,19 @@
         <v>16862</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9823</v>
+        <v>9544</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>25048</v>
+        <v>25112</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.128589254672953</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07490773396319679</v>
+        <v>0.0727853881469209</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1910157474603792</v>
+        <v>0.1915068737802068</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>53985</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>46999</v>
+        <v>46887</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>59356</v>
+        <v>59921</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7986293855979015</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6952836786795913</v>
+        <v>0.693625736245882</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8780841456206729</v>
+        <v>0.8864484679658975</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>56</v>
@@ -2595,19 +2595,19 @@
         <v>60283</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>54047</v>
+        <v>54630</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>62566</v>
+        <v>62565</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.948848273935419</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8506959969636583</v>
+        <v>0.8598710578942587</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9847844205838955</v>
+        <v>0.9847588090695227</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>110</v>
@@ -2616,19 +2616,19 @@
         <v>114268</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>106082</v>
+        <v>106018</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>121307</v>
+        <v>121586</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.871410745327047</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8089842525396209</v>
+        <v>0.8084931262197933</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9250922660368033</v>
+        <v>0.9272146118530791</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>3835</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>969</v>
+        <v>939</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10813</v>
+        <v>9927</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08860619022488943</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02238317287345703</v>
+        <v>0.02169893358851045</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2498118769578558</v>
+        <v>0.2293420921126995</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -2744,7 +2744,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8832</v>
+        <v>9774</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09975618328573023</v>
@@ -2753,7 +2753,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3236295760163084</v>
+        <v>0.3581767072227744</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>5</v>
@@ -2762,19 +2762,19 @@
         <v>6558</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2066</v>
+        <v>2698</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>14814</v>
+        <v>14963</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0929176651156173</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0292685314830188</v>
+        <v>0.0382289000893509</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2099121472177203</v>
+        <v>0.2120129392644698</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>39449</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>32471</v>
+        <v>33357</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>42315</v>
+        <v>42345</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9113938097751105</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7501881230421442</v>
+        <v>0.7706579078873008</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.977616827126543</v>
+        <v>0.9783010664114896</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>23</v>
@@ -2812,7 +2812,7 @@
         <v>24567</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>18457</v>
+        <v>17515</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>27289</v>
@@ -2821,7 +2821,7 @@
         <v>0.9002438167142698</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6763704239836915</v>
+        <v>0.6418232927772271</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -2833,19 +2833,19 @@
         <v>64016</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>55760</v>
+        <v>55611</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>68508</v>
+        <v>67876</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9070823348843827</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7900878527822798</v>
+        <v>0.7879870607355305</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9707314685169812</v>
+        <v>0.9617710999106491</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>61249</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>47464</v>
+        <v>48261</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>75241</v>
+        <v>76122</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2149648096854904</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1665825018527586</v>
+        <v>0.1693785217121772</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2640718212087866</v>
+        <v>0.2671635908607645</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -2958,19 +2958,19 @@
         <v>13446</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7258</v>
+        <v>6861</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>23887</v>
+        <v>22993</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05283925823811417</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0285201794015248</v>
+        <v>0.02696073241855882</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09386941358695641</v>
+        <v>0.09035576330108613</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>72</v>
@@ -2979,19 +2979,19 @@
         <v>74696</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>59909</v>
+        <v>59629</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>92483</v>
+        <v>92028</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1384784206602501</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1110656557378991</v>
+        <v>0.110546987431756</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1714542632513196</v>
+        <v>0.1706120341244362</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>223678</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>209686</v>
+        <v>208805</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>237463</v>
+        <v>236666</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7850351903145096</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7359281787912134</v>
+        <v>0.7328364091392354</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8334174981472412</v>
+        <v>0.8306214782878228</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>227</v>
@@ -3029,19 +3029,19 @@
         <v>241029</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>230588</v>
+        <v>231482</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>247217</v>
+        <v>247614</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9471607417618858</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9061305864130436</v>
+        <v>0.9096442366989138</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9714798205984754</v>
+        <v>0.9730392675814411</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>439</v>
@@ -3050,19 +3050,19 @@
         <v>464706</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>446919</v>
+        <v>447374</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>479493</v>
+        <v>479773</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8615215793397499</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8285457367486804</v>
+        <v>0.8293879658755638</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8889343442621009</v>
+        <v>0.8894530125682441</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>8289</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4046</v>
+        <v>3972</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15018</v>
+        <v>15613</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1114442351695668</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05439256234036455</v>
+        <v>0.05339625268968733</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2019042400580544</v>
+        <v>0.2099026784251245</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -3415,19 +3415,19 @@
         <v>5076</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1905</v>
+        <v>1984</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11041</v>
+        <v>11018</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07455379959611147</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02798370944769919</v>
+        <v>0.02913896946628387</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1621670249696434</v>
+        <v>0.1618274108158595</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>13</v>
@@ -3436,19 +3436,19 @@
         <v>13365</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6973</v>
+        <v>7530</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>20992</v>
+        <v>21523</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09381428145128501</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04894518668709198</v>
+        <v>0.05285124650008587</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1473484338442797</v>
+        <v>0.1510760126479967</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>66093</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>59364</v>
+        <v>58769</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>70336</v>
+        <v>70410</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8885557648304332</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7980957599419455</v>
+        <v>0.7900973215748753</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9456074376596355</v>
+        <v>0.9466037473103127</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>57</v>
@@ -3486,19 +3486,19 @@
         <v>63009</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>57044</v>
+        <v>57067</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>66180</v>
+        <v>66101</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9254462004038886</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8378329750303568</v>
+        <v>0.8381725891841398</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9720162905523009</v>
+        <v>0.9708610305337161</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>121</v>
@@ -3507,19 +3507,19 @@
         <v>129102</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>121475</v>
+        <v>120944</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>135494</v>
+        <v>134937</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.906185718548715</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8526515661557202</v>
+        <v>0.8489239873520033</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9510548133129081</v>
+        <v>0.9471487534999141</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>7596</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3138</v>
+        <v>3131</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14665</v>
+        <v>13871</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1516001752800784</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06263300055425007</v>
+        <v>0.06249193828632067</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2926931410697406</v>
+        <v>0.2768594876382606</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -3645,19 +3645,19 @@
         <v>7596</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3083</v>
+        <v>3026</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>14918</v>
+        <v>14608</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07606684159492824</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03087523297374587</v>
+        <v>0.03030629141617168</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1493964772517892</v>
+        <v>0.1462955331117538</v>
       </c>
     </row>
     <row r="8">
@@ -3674,19 +3674,19 @@
         <v>42507</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>35438</v>
+        <v>36232</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>46965</v>
+        <v>46972</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8483998247199216</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7073068589302594</v>
+        <v>0.7231405123617396</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9373669994457501</v>
+        <v>0.9375080617136794</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>44</v>
@@ -3708,19 +3708,19 @@
         <v>92258</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>84936</v>
+        <v>85246</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>96771</v>
+        <v>96828</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9239331584050717</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8506035227482106</v>
+        <v>0.8537044668882464</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9691247670262539</v>
+        <v>0.9696937085838284</v>
       </c>
     </row>
     <row r="9">
@@ -3812,19 +3812,19 @@
         <v>9777</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5025</v>
+        <v>4866</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16274</v>
+        <v>15921</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.208212784179605</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1069987118365101</v>
+        <v>0.1036185419108269</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3465474763783984</v>
+        <v>0.3390389124171434</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -3833,19 +3833,19 @@
         <v>3956</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9559</v>
+        <v>9176</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07889531500814298</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02041566583527542</v>
+        <v>0.020442138866735</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1906522638845922</v>
+        <v>0.1830095393615276</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>13</v>
@@ -3854,19 +3854,19 @@
         <v>13733</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7865</v>
+        <v>7496</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>21270</v>
+        <v>21348</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1414367558766672</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08099633900022871</v>
+        <v>0.07720186783075303</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2190594673165926</v>
+        <v>0.2198604372062727</v>
       </c>
     </row>
     <row r="11">
@@ -3883,19 +3883,19 @@
         <v>37182</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>30685</v>
+        <v>31038</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>41934</v>
+        <v>42093</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.791787215820395</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6534525236216013</v>
+        <v>0.660961087582857</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8930012881634899</v>
+        <v>0.8963814580891739</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>41</v>
@@ -3904,19 +3904,19 @@
         <v>46182</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>40579</v>
+        <v>40962</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>49114</v>
+        <v>49113</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.921104684991857</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8093477361154079</v>
+        <v>0.8169904606384734</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9795843341647246</v>
+        <v>0.9795578611332652</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>77</v>
@@ -3925,19 +3925,19 @@
         <v>83364</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>75827</v>
+        <v>75749</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>89232</v>
+        <v>89601</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8585632441233328</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7809405326834074</v>
+        <v>0.7801395627937274</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9190036609997713</v>
+        <v>0.9227981321692471</v>
       </c>
     </row>
     <row r="12">
@@ -4029,19 +4029,19 @@
         <v>3880</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>959</v>
+        <v>945</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8279</v>
+        <v>8696</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1532931339159093</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03789409904933787</v>
+        <v>0.03735541019942226</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3271295003200746</v>
+        <v>0.3435919383595872</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -4050,19 +4050,19 @@
         <v>5086</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1656</v>
+        <v>1883</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>9940</v>
+        <v>10223</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2267575949494086</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07382985180006103</v>
+        <v>0.08393501657336597</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4431487741441145</v>
+        <v>0.4557955849848818</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>9</v>
@@ -4071,19 +4071,19 @@
         <v>8966</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4321</v>
+        <v>4825</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>15694</v>
+        <v>15409</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1878099067110591</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09052144540219553</v>
+        <v>0.1010743228815619</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3287486348243789</v>
+        <v>0.3227775747043458</v>
       </c>
     </row>
     <row r="14">
@@ -4100,19 +4100,19 @@
         <v>21429</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>17030</v>
+        <v>16613</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>24350</v>
+        <v>24364</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8467068660840906</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6728704996799244</v>
+        <v>0.6564080616404124</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9621059009506621</v>
+        <v>0.9626445898005777</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>15</v>
@@ -4121,19 +4121,19 @@
         <v>17344</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>12490</v>
+        <v>12207</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>20774</v>
+        <v>20547</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7732424050505914</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5568512258558845</v>
+        <v>0.5442044150151182</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9261701481999385</v>
+        <v>0.916064983426634</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>36</v>
@@ -4142,19 +4142,19 @@
         <v>38774</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>32046</v>
+        <v>32331</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>43419</v>
+        <v>42915</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8121900932889409</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6712513651756208</v>
+        <v>0.677222425295655</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9094785545978029</v>
+        <v>0.8989256771184382</v>
       </c>
     </row>
     <row r="15">
@@ -4246,19 +4246,19 @@
         <v>29542</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>20944</v>
+        <v>19948</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>40674</v>
+        <v>41482</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1501487983846099</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1064501452388936</v>
+        <v>0.1013871637828838</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2067239884599238</v>
+        <v>0.2108321370683443</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>14</v>
@@ -4267,19 +4267,19 @@
         <v>14118</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8170</v>
+        <v>8085</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>22732</v>
+        <v>22801</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07414666436018592</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04290861068760603</v>
+        <v>0.04246104628774915</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1193886405039176</v>
+        <v>0.1197501408067497</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>42</v>
@@ -4288,19 +4288,19 @@
         <v>43660</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>33219</v>
+        <v>31551</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>57049</v>
+        <v>56785</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1127708290497194</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08580290484599322</v>
+        <v>0.08149303496242861</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.147353268557296</v>
+        <v>0.1466701877839348</v>
       </c>
     </row>
     <row r="17">
@@ -4317,19 +4317,19 @@
         <v>167211</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>156079</v>
+        <v>155271</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>175809</v>
+        <v>176805</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8498512016153901</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7932760115400759</v>
+        <v>0.7891678629316558</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8935498547611062</v>
+        <v>0.8986128362171162</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>157</v>
@@ -4338,19 +4338,19 @@
         <v>176287</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>167673</v>
+        <v>167604</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>182235</v>
+        <v>182320</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9258533356398141</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8806113594960822</v>
+        <v>0.8802498591932503</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9570913893123939</v>
+        <v>0.9575389537122508</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>319</v>
@@ -4359,19 +4359,19 @@
         <v>343498</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>330109</v>
+        <v>330373</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>353939</v>
+        <v>355607</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8872291709502806</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.852646731442704</v>
+        <v>0.8533298122160653</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9141970951540069</v>
+        <v>0.9185069650375715</v>
       </c>
     </row>
     <row r="18">
@@ -4703,19 +4703,19 @@
         <v>13473</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7548</v>
+        <v>7844</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19877</v>
+        <v>20538</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3222079813394769</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1805136647607496</v>
+        <v>0.1875991378233551</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4753563019953907</v>
+        <v>0.4911516247074537</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -4724,19 +4724,19 @@
         <v>4905</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2113</v>
+        <v>2147</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8999</v>
+        <v>9275</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1009624758437413</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04348763412874598</v>
+        <v>0.04418412640446175</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1852276289151581</v>
+        <v>0.1909221408629194</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>19</v>
@@ -4745,19 +4745,19 @@
         <v>18378</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>11277</v>
+        <v>11154</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>27100</v>
+        <v>27255</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.2033056158106452</v>
+        <v>0.2033056158106451</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1247524640735248</v>
+        <v>0.1233915759252105</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2997970925379249</v>
+        <v>0.3015081352060631</v>
       </c>
     </row>
     <row r="5">
@@ -4774,19 +4774,19 @@
         <v>28342</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>21938</v>
+        <v>21277</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>34267</v>
+        <v>33971</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6777920186605232</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5246436980046092</v>
+        <v>0.5088483752925455</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8194863352392505</v>
+        <v>0.8124008621766446</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>65</v>
@@ -4795,19 +4795,19 @@
         <v>43676</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>39582</v>
+        <v>39306</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>46468</v>
+        <v>46434</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8990375241562588</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8147723710848416</v>
+        <v>0.8090778591370806</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9565123658712539</v>
+        <v>0.9558158735955381</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>94</v>
@@ -4816,19 +4816,19 @@
         <v>72017</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>63295</v>
+        <v>63140</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>79118</v>
+        <v>79241</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7966943841893549</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.700202907462075</v>
+        <v>0.6984918647939369</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8752475359264754</v>
+        <v>0.8766084240747897</v>
       </c>
     </row>
     <row r="6">
@@ -4920,19 +4920,19 @@
         <v>12335</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7003</v>
+        <v>6789</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>20008</v>
+        <v>19034</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.2497855530540344</v>
+        <v>0.2497855530540345</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1418005407615064</v>
+        <v>0.1374776870828342</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4051496337102998</v>
+        <v>0.3854277987933296</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -4941,19 +4941,19 @@
         <v>5594</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2228</v>
+        <v>1873</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12803</v>
+        <v>12047</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07646840774396423</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03046100446723018</v>
+        <v>0.02559978480932154</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1750135234774019</v>
+        <v>0.1646784191126517</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>17</v>
@@ -4962,19 +4962,19 @@
         <v>17929</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10425</v>
+        <v>10805</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>27534</v>
+        <v>27615</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1463166360867912</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08507802155654426</v>
+        <v>0.08818201016950362</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2246979474269804</v>
+        <v>0.2253626720888469</v>
       </c>
     </row>
     <row r="8">
@@ -4991,19 +4991,19 @@
         <v>37048</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>29375</v>
+        <v>30349</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>42380</v>
+        <v>42594</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7502144469459657</v>
+        <v>0.7502144469459656</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5948503662897001</v>
+        <v>0.6145722012066704</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8581994592384936</v>
+        <v>0.862522312917166</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>115</v>
@@ -5012,19 +5012,19 @@
         <v>67559</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>60350</v>
+        <v>61106</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>70925</v>
+        <v>71280</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9235315922560358</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8249864765225996</v>
+        <v>0.8353215808873483</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9695389955327699</v>
+        <v>0.9744002151906783</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>154</v>
@@ -5033,19 +5033,19 @@
         <v>104607</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>95002</v>
+        <v>94921</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>112111</v>
+        <v>111731</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8536833639132089</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7753020525730193</v>
+        <v>0.7746373279111528</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9149219784434558</v>
+        <v>0.9118179898304961</v>
       </c>
     </row>
     <row r="9">
@@ -5137,19 +5137,19 @@
         <v>12766</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6892</v>
+        <v>6955</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21496</v>
+        <v>21209</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1710620458625258</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09234992685925797</v>
+        <v>0.09319885104531207</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2880485020767785</v>
+        <v>0.2842048292150343</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -5158,19 +5158,19 @@
         <v>5325</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2140</v>
+        <v>2365</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>10300</v>
+        <v>10562</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09546069030602632</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03837350254808798</v>
+        <v>0.04240109444974861</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1846614457666285</v>
+        <v>0.1893588022264191</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>20</v>
@@ -5179,19 +5179,19 @@
         <v>18090</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>11314</v>
+        <v>11481</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>28959</v>
+        <v>27961</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1387247705289903</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08676089010927462</v>
+        <v>0.08804459958340696</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2220711353291451</v>
+        <v>0.2144180233892032</v>
       </c>
     </row>
     <row r="11">
@@ -5208,19 +5208,19 @@
         <v>61859</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>53129</v>
+        <v>53416</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>67733</v>
+        <v>67670</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8289379541374744</v>
+        <v>0.8289379541374743</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7119514979232217</v>
+        <v>0.7157951707849656</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.907650073140742</v>
+        <v>0.9068011489546879</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>84</v>
@@ -5229,19 +5229,19 @@
         <v>50452</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>45477</v>
+        <v>45215</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>53637</v>
+        <v>53412</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9045393096939737</v>
+        <v>0.9045393096939736</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8153385542333709</v>
+        <v>0.8106411977735809</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9616264974519116</v>
+        <v>0.9575989055502513</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>144</v>
@@ -5250,19 +5250,19 @@
         <v>112312</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>101443</v>
+        <v>102441</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>119088</v>
+        <v>118921</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8612752294710095</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7779288646708549</v>
+        <v>0.7855819766107972</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9132391098907253</v>
+        <v>0.9119554004165931</v>
       </c>
     </row>
     <row r="12">
@@ -5354,19 +5354,19 @@
         <v>10933</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4490</v>
+        <v>4091</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>21071</v>
+        <v>22301</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2021259821195732</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08301889773081596</v>
+        <v>0.07564314341293524</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3895636507247602</v>
+        <v>0.4123063875325976</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -5378,7 +5378,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>4151</v>
+        <v>3947</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01446994131435168</v>
@@ -5387,7 +5387,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08047690948525366</v>
+        <v>0.0765210004327847</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>7</v>
@@ -5396,19 +5396,19 @@
         <v>11679</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4638</v>
+        <v>4521</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>23856</v>
+        <v>23513</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1105269569135246</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04389218447791525</v>
+        <v>0.0427886651477003</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2257688422223168</v>
+        <v>0.2225218478386488</v>
       </c>
     </row>
     <row r="14">
@@ -5425,19 +5425,19 @@
         <v>43155</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>33017</v>
+        <v>31787</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>49598</v>
+        <v>49997</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7978740178804268</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6104363492752403</v>
+        <v>0.5876936124674036</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9169811022691843</v>
+        <v>0.9243568565870648</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>68</v>
@@ -5446,7 +5446,7 @@
         <v>50832</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>47427</v>
+        <v>47631</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>51578</v>
@@ -5455,7 +5455,7 @@
         <v>0.9855300586856484</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9195230905147485</v>
+        <v>0.9234789995672072</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -5467,19 +5467,19 @@
         <v>93988</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>81811</v>
+        <v>82154</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>101029</v>
+        <v>101146</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8894730430864755</v>
+        <v>0.8894730430864753</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7742311577776834</v>
+        <v>0.7774781521613512</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9561078155220849</v>
+        <v>0.9572113348522997</v>
       </c>
     </row>
     <row r="15">
@@ -5571,19 +5571,19 @@
         <v>49506</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>36630</v>
+        <v>35410</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>65858</v>
+        <v>63881</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.2251200706489317</v>
+        <v>0.2251200706489316</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1665661108627925</v>
+        <v>0.1610185385228425</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2994762012737923</v>
+        <v>0.2904873451088611</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>22</v>
@@ -5592,19 +5592,19 @@
         <v>16570</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10570</v>
+        <v>9994</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>26010</v>
+        <v>24633</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0723281256740607</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0461402238007986</v>
+        <v>0.0436231430109329</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1135366234583911</v>
+        <v>0.10752481269727</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>63</v>
@@ -5613,19 +5613,19 @@
         <v>66076</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>51030</v>
+        <v>51629</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>85208</v>
+        <v>83702</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1471624604216624</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1136525386250102</v>
+        <v>0.1149870125346849</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1897717425183976</v>
+        <v>0.1864179056551695</v>
       </c>
     </row>
     <row r="17">
@@ -5642,19 +5642,19 @@
         <v>170405</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>154053</v>
+        <v>156030</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>183281</v>
+        <v>184501</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7748799293510683</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7005237987262077</v>
+        <v>0.709512654891139</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8334338891372075</v>
+        <v>0.8389814614771575</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>332</v>
@@ -5663,19 +5663,19 @@
         <v>212519</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>203079</v>
+        <v>204456</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>218519</v>
+        <v>219095</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9276718743259392</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8864633765416091</v>
+        <v>0.8924751873027299</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9538597761992015</v>
+        <v>0.956376856989067</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>502</v>
@@ -5684,19 +5684,19 @@
         <v>382924</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>363792</v>
+        <v>365298</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>397970</v>
+        <v>397371</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8528375395783375</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8102282574816024</v>
+        <v>0.8135820943448321</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8863474613749898</v>
+        <v>0.8850129874653152</v>
       </c>
     </row>
     <row r="18">
